--- a/examples/KD/HEAT/JAIS_2023/interrater_agreement.xlsx
+++ b/examples/KD/HEAT/JAIS_2023/interrater_agreement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srandrad\smart_nlp\examples\KD\HEAT\JAIS_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D052F23-1F0A-492E-8C91-3405B2F6527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFAD25B-F70F-4060-B3BC-E05A135F5BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EE9D1F03-32C8-424D-AFE4-6CB0AE9CDEF7}"/>
+    <workbookView xWindow="3696" yWindow="3696" windowWidth="17280" windowHeight="10044" activeTab="1" xr2:uid="{EE9D1F03-32C8-424D-AFE4-6CB0AE9CDEF7}"/>
   </bookViews>
   <sheets>
     <sheet name="SA" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4945,4166 +4946,4167 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>749</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>750</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>751</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>752</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>753</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>754</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>755</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>756</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>757</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>758</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>759</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>760</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>761</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>762</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>763</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>764</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>765</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>766</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>767</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>768</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>769</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>770</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>771</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>772</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>773</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>774</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>775</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>776</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>777</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>778</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>779</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>780</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>781</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>782</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>783</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>784</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>785</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>786</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>787</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>788</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>789</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>790</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>791</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>792</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>793</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>794</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>795</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>796</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>1</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>797</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>1</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>798</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>799</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1">
         <v>0</v>
       </c>
     </row>
